--- a/UI/bin/Debug/Excel/SettlementDetails.xlsx
+++ b/UI/bin/Debug/Excel/SettlementDetails.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgh\Desktop\wms_client\UI\bin\Debug\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9947"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23025" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>北京安途丰达物流有限公司月结算表</t>
   </si>
@@ -25,9 +30,6 @@
     <t>#SET TABLE COLUMNS 11</t>
   </si>
   <si>
-    <t>#WRITE var item=priceDetails;var storageCharge=storageCharge;var logisticFee=logisticFee;""</t>
-  </si>
-  <si>
     <t xml:space="preserve">公 司 名 称：  #WRITE item[1].supplierName </t>
   </si>
   <si>
@@ -92,28 +94,64 @@
   </si>
   <si>
     <t>合计</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#WRITE item[0].supplierName </t>
   </si>
   <si>
     <t xml:space="preserve">北京安途丰达物流部确认：
 </t>
+  </si>
+  <si>
+    <r>
+      <t>#WRITE var item=priceDetails;var storageCharge=storageCharge;var logisticFee=logisticFee;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>var wholeFee=wholeFee;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wholeFee</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[1].supplierName+"确认："</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,7 +172,7 @@
     <font>
       <sz val="12"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -150,12 +188,6 @@
     <font>
       <sz val="10"/>
       <color theme="3"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -176,151 +208,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,194 +253,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -789,255 +511,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1055,61 +535,103 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1119,105 +641,25 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1231,7 +673,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Rectangle 1"/>
         <xdr:cNvSpPr>
@@ -1353,7 +795,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Rectangle 1"/>
         <xdr:cNvSpPr>
@@ -1717,33 +1159,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="14.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="13.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="10.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="12.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="12.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="11.3796296296296" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" spans="1:10">
+    <row r="1" spans="1:12" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1752,9 +1194,9 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="J1" s="37"/>
+      <c r="J1" s="27"/>
     </row>
-    <row r="2" ht="15.6" spans="1:7">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1765,179 +1207,178 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="16.35" spans="1:7">
+    <row r="3" spans="1:12" ht="14.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
+      <c r="C3" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" ht="18.15" spans="1:7">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:12" ht="17.25">
+      <c r="A4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="16.5">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" ht="15" spans="1:7">
-      <c r="A5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="12" t="s">
+    <row r="6" spans="1:12" ht="16.5">
+      <c r="A6" s="35" t="s">
         <v>14</v>
       </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
     </row>
-    <row r="6" ht="15" spans="1:7">
-      <c r="A6" s="13" t="s">
+    <row r="7" spans="1:12" ht="16.5">
+      <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
+      <c r="B7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
     </row>
-    <row r="7" ht="15" spans="1:11">
-      <c r="A7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="15" t="s">
+    <row r="8" spans="1:12" ht="16.5">
+      <c r="A8" s="18"/>
+      <c r="B8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
     </row>
-    <row r="8" ht="16.35" spans="1:12">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23" t="s">
+    <row r="9" spans="1:12" ht="16.5">
+      <c r="A9" s="15"/>
+      <c r="B9" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
     </row>
-    <row r="9" ht="15" spans="1:12">
-      <c r="A9" s="17"/>
-      <c r="B9" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27" t="s">
+    <row r="10" spans="1:12" ht="16.5">
+      <c r="A10" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="22"/>
     </row>
-    <row r="10" ht="16.35" spans="1:7">
-      <c r="A10" s="21" t="s">
+    <row r="11" spans="1:12" ht="17.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.25">
+      <c r="A12" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="29" t="e">
-        <f>F8+F9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" ht="17.4" spans="1:8">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" ht="15.6" spans="1:8">
-      <c r="A12" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="32"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" ht="17.4" spans="1:12">
+    <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="2"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
     </row>
-    <row r="14" ht="15.6" spans="1:8">
+    <row r="14" spans="1:12" ht="14.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1947,25 +1388,26 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="3:7">
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
+    <row r="15" spans="1:12">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>